--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2608599.882237446</v>
+        <v>2606712.300721045</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>104.082459166963</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.92375604299538</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>70.3988096317963</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>327.7892068359236</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>383.1210607601525</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>50.28788303971709</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>215.401566615888</v>
+        <v>126.7477612906591</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>33.84234274505282</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>14.48345164522457</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206846</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.8155841663233</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249387</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>73.31767254005725</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.25380651057074</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>62.6386941719354</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>17.29855725687363</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>67.58966474227995</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>84.35531814397962</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>35.58458003433864</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.452980771316845</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>58.19095390327324</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>5.322702126632353</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571489</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523569</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>123.2856521407273</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346312</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1443.489535627676</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1443.489535627676</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1443.489535627676</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1057.701283029432</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1443.489535627676</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1443.489535627676</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.1849863041093</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="C4" t="n">
-        <v>338.1849863041093</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>627.60215634107</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>338.1849863041093</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>338.1849863041093</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.1849863041093</v>
+        <v>137.7043515607638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1725.724578248621</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>1725.724578248621</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>1367.458879641871</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>2112.324418312743</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>422.6486545462877</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>787.7948591932184</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>787.7948591932184</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949741</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.1113712492</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1564.534031233152</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1174.39469925734</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>693.9447996154718</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>693.9447996154718</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>693.9447996154718</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>693.9447996154718</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>693.9447996154718</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,7 +5054,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1301.12275119798</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1077.337335987485</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>788.2086972010437</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>533.5242089951569</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W13" t="n">
-        <v>244.1070389581962</v>
+        <v>545.9992215018331</v>
       </c>
       <c r="X13" t="n">
-        <v>244.1070389581962</v>
+        <v>318.0096706038157</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028562</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,7 +5267,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,16 +5279,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>943.0172707642139</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>468.281933461499</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.712528333286</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="X16" t="n">
-        <v>870.7229774352688</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y16" t="n">
-        <v>649.9303982917387</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,16 +5592,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.3642008327092</v>
+        <v>310.6051391271018</v>
       </c>
       <c r="C19" t="n">
-        <v>407.4280179048022</v>
+        <v>310.6051391271018</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>160.488499714766</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>160.488499714766</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.488499714766</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.488499714766</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609663</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609663</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>986.0022165609663</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X19" t="n">
-        <v>758.012665662949</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.012665662949</v>
+        <v>310.6051391271018</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,10 +5738,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5753,10 +5753,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,16 +5829,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N21" t="n">
         <v>1661.954360834046</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>994.3109288932102</v>
+        <v>226.2249729967966</v>
       </c>
       <c r="C22" t="n">
-        <v>825.3747459653033</v>
+        <v>226.2249729967966</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1430.643881929337</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1175.95939372345</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>1175.95939372345</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X22" t="n">
-        <v>1175.95939372345</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y22" t="n">
-        <v>1175.95939372345</v>
+        <v>226.2249729967966</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,22 +6069,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N24" t="n">
-        <v>1651.324348736746</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>610.8083514132643</v>
+        <v>450.0103882072915</v>
       </c>
       <c r="C25" t="n">
-        <v>441.8721684853574</v>
+        <v>281.0742052793846</v>
       </c>
       <c r="D25" t="n">
-        <v>441.8721684853574</v>
+        <v>281.0742052793846</v>
       </c>
       <c r="E25" t="n">
-        <v>293.9590749029643</v>
+        <v>133.1611116969916</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>133.1611116969916</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>898.792518248839</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>898.792518248839</v>
       </c>
       <c r="W25" t="n">
-        <v>1020.446367141521</v>
+        <v>898.792518248839</v>
       </c>
       <c r="X25" t="n">
-        <v>792.456816243504</v>
+        <v>670.8029673508216</v>
       </c>
       <c r="Y25" t="n">
-        <v>792.456816243504</v>
+        <v>450.0103882072915</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>929.5163332765953</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977053</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>2279.445761859783</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>503.5547239186419</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="C28" t="n">
-        <v>503.5547239186419</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D28" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1496.438512203037</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1496.438512203037</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1496.438512203037</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="U28" t="n">
-        <v>1496.438512203037</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V28" t="n">
-        <v>1241.75402399715</v>
+        <v>985.5330309511298</v>
       </c>
       <c r="W28" t="n">
-        <v>952.3368539601894</v>
+        <v>696.1158609141692</v>
       </c>
       <c r="X28" t="n">
-        <v>724.347303062172</v>
+        <v>468.1263100161518</v>
       </c>
       <c r="Y28" t="n">
-        <v>503.5547239186419</v>
+        <v>247.3337308726217</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.010087623274</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.9720111083031</v>
+        <v>439.5324299542189</v>
       </c>
       <c r="C31" t="n">
-        <v>490.7966934617672</v>
+        <v>434.1559631596408</v>
       </c>
       <c r="D31" t="n">
-        <v>396.4409193308023</v>
+        <v>339.8001890286758</v>
       </c>
       <c r="E31" t="n">
-        <v>304.2886910297801</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297801</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309716</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962058</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1067.120010135978</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>894.8913245193312</v>
+        <v>730.4517433652471</v>
       </c>
       <c r="Y31" t="n">
-        <v>729.859610657172</v>
+        <v>565.4200295030878</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756087</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.42446442012</v>
       </c>
       <c r="O33" t="n">
-        <v>2227.840212610279</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
         <v>2525.810590821615</v>
@@ -6841,25 +6841,25 @@
         <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,28 +6920,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1689.561836756086</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>2019.424464420119</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>2298.964529638816</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7178,7 +7178,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,10 +7199,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7251,19 +7251,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>592.8217113586345</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
         <v>2123.441607278215</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,7 +7333,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7342,7 +7342,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003442</v>
@@ -7397,34 +7397,34 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823803</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.28419175141</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7494,19 +7494,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>2041.248044820708</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
         <v>559.344147222967</v>
@@ -7555,19 +7555,19 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254958</v>
@@ -7582,13 +7582,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>18.73797368291355</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>148.1350559470644</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>308.1251096272032</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>104.6241510367944</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,19 +9723,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>18.73797368291338</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>188.8856946302394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>272.8719470256798</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>52.497333613053</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>297.3877236703336</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>230.7151863772039</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,16 +10434,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>22.04402060665467</v>
       </c>
       <c r="P33" t="n">
-        <v>93.88676507992591</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P36" t="n">
-        <v>32.78140656352451</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10826,13 +10826,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,22 +10899,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>182.0340742867944</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720754</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11142,22 +11142,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>41.75994765618367</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>159.0121003135239</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>2.105225817279916</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>48.84084321165227</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>93.92914855857059</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>133.3616665076416</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>86.27513419560073</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>131.3169157613387</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>218.6476876562974</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>61.06572987895163</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>130.9089884290389</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>107.511371632476</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>163.3566071551161</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.7208623434384</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>108.0340895673065</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.902744876744691e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>803444.9333717127</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717127</v>
       </c>
     </row>
     <row r="11">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="F2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="K2" t="n">
-        <v>610233.2060179047</v>
+        <v>610233.2060179055</v>
       </c>
       <c r="L2" t="n">
         <v>615781.3273982125</v>
@@ -26350,10 +26350,10 @@
         <v>615781.3273982126</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.2301010673</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="M4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819114</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222678.4976662656</v>
+        <v>-222678.4976662658</v>
       </c>
       <c r="C6" t="n">
-        <v>367289.3815482788</v>
+        <v>367289.3815482792</v>
       </c>
       <c r="D6" t="n">
-        <v>367289.3815482788</v>
+        <v>367289.3815482792</v>
       </c>
       <c r="E6" t="n">
-        <v>-52778.38040592077</v>
+        <v>-52875.83953189284</v>
       </c>
       <c r="F6" t="n">
-        <v>472381.6560709756</v>
+        <v>472284.1969450035</v>
       </c>
       <c r="G6" t="n">
-        <v>472381.6560709756</v>
+        <v>472284.1969450036</v>
       </c>
       <c r="H6" t="n">
-        <v>472381.6560709756</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="I6" t="n">
-        <v>472381.6560709754</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="J6" t="n">
-        <v>295958.4368783828</v>
+        <v>295860.9777524103</v>
       </c>
       <c r="K6" t="n">
-        <v>429103.1620837689</v>
+        <v>429084.6683458355</v>
       </c>
       <c r="L6" t="n">
-        <v>463129.9199491293</v>
+        <v>463129.9199491292</v>
       </c>
       <c r="M6" t="n">
-        <v>338671.8115161589</v>
+        <v>338671.811516159</v>
       </c>
       <c r="N6" t="n">
         <v>473472.8267499961</v>
       </c>
       <c r="O6" t="n">
-        <v>473472.8267499962</v>
+        <v>473472.8267499958</v>
       </c>
       <c r="P6" t="n">
         <v>429310.2214471502</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26756,16 +26756,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26826,7 +26826,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>302.7935865747484</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>73.24713279879977</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>181.7388336920317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>54.14116323633817</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>23.75498498155895</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>175.4217723493201</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>154.329534062581</v>
+        <v>242.9833393878099</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>112.822849235105</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.0395466913664</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.631974555493798e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33421,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>397.3927609030887</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>641.3196830252161</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35744,10 +35744,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022528</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>437.8187244348073</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178377</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>351.9325470809263</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>395.9791095617642</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>522.1296519817042</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>259.5907485445777</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,19 +36759,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>630.5822970683466</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>304.407722847763</v>
       </c>
       <c r="P33" t="n">
-        <v>300.9801800114506</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P36" t="n">
-        <v>239.8748214950492</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37546,13 +37546,13 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>332.6095128747336</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415095</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37862,22 +37862,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>374.9545210541966</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>484.886707464902</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686865</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,13 +37950,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>408.2698052695482</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
